--- a/datastriping/episodeInformation/episodes.xlsx
+++ b/datastriping/episodeInformation/episodes.xlsx
@@ -11,8 +11,1672 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="553">
+  <si>
+    <t xml:space="preserve">Bart the General     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart the Genius     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Call of the Simpsons     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Crepes of Wrath     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer's Night Out     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer's Odyssey     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krusty Gets Busted     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life on the Fast Lane     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moaning Lisa     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpsons Roasting on an Open Fire     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some Enchanted Evening     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Telltale Head     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's No Disgrace Like Home     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart Gets an F""     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart Gets Hit by a Car     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart the Daredevil     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart vs. Thanksgiving     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart's Dog Gets an F     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Feud     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush with Greatness     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dancin' Homer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead Putting Society     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer vs. Lisa and the 8th Commandment     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itchy &amp; Scratchy &amp; Marge     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa's Substitute     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh Brother, Where Art Thou?     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Money     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Fish, Two Fish, Blowfish, Blue Fish     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal Charming     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpson and Delilah     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three Men and a Comic Book     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Cars in Every Garage and Three Eyes on Every Fish     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The War of the Simpsons     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Way We Was     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart the Lover     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart the Murderer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart's Friend Falls in Love     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Widower     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brother, Can You Spare Two Dimes?     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burns Verkaufen der Kraftwerk     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colonel Homer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dog of Death     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flaming Moe's     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer Alone     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer at the Bat     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer Defined     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Married Marge     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like Father, Like Clown     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa the Greek     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa's Pony     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Lisa Goes to Washington     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Otto Show     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio Bart     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturdays of Thunder     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate Vocations     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stark Raving Dad     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror II     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Flanders Failed     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brother from the Same Planet     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duffless     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Front     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer the Heretic     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer's Triple Bypass     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Love Lisa     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itchy &amp; Scratchy: The Movie     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamp Krusty     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krusty Gets Kancelled     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Exit to Springfield     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa the Beauty Queen     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa's First Word     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marge Gets a Job     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marge in Chains     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marge vs. the Monorail     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Plow     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Kid on the Block     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selma's Choice     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So It's Come to This: A Simpsons Clip Show     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Streetcar Named Marge     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror III     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whacking Day     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart Gets an Elephant     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart Gets Famous     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart's Inner Child     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Boy Who Knew Too Much     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boy-Scoutz 'n the Hood     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burns' Heir     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Feare     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Space Homer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer and Apu     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer Goes to College     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer Loves Flanders     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer the Vigilante     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer's Barbershop Quartet     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Bouvier's Lover     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Last Temptation of Homer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa vs. Malibu Stacy     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marge on the Lam     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosebud     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secrets of a Successful Marriage     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$pringfield (Or, How I Learned to Stop Worrying and Love Legalized Gambling)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet Seymour Skinner's Baadasssss Song     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror IV     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Maggie Makes Three     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another Simpsons Clip Show     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart of Darkness     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart vs. Australia     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart's Comet     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart's Girlfriend     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fear of Flying     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grampa vs. Sexual Inadequacy     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer Badman     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer the Great     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer vs. Patty and Selma     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homie the Clown     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itchy &amp; Scratchy Land     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon of Troy     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa on Ice     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa's Rival     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa's Wedding     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PTA Disbands     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Round Springfield     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sideshow Bob Roberts     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Springfield Connection     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Star is Burns     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror V     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Dozen and One Greyhounds     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who Shot Mr. Burns? (Part One)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 Short Films About Springfield     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Fish Called Selma     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart on the Road     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart Sells His Soul     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart the Fink     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Day the Violence Died     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Sweet Homediddly-Dum-Doodily     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer the Smithers     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homerpalooza     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">King-Size Homer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa the Iconoclast     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa the Vegetarian     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marge Be Not Proud     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother Simpson     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Much Apu About Nothing     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radioactive Man     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raging Abe Simpson and His Grumbling Grandson in The Curse of the Flying Hellfish""     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes from the Class Struggle in Springfield     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sideshow Bob's Last Gleaming     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Simpsons 138th Episode Spectacular     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer of 4 Ft. 2     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Homer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror VI     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Bad Neighbors     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who Shot Mr. Burns? (Part Two)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart After Dark     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brother from Another Series     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burns, Baby Burns     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Canine Mutiny     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Viaje Misterioso de Nuestro Jomer (The Mysterious Voyage of Homer)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade School Confidential     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Homer They Fall     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer vs. the Eighteenth Amendment     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer's Enemy     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer's Phobia     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurricane Neddy     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Marge We Trust     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Itchy &amp; Scratchy &amp; Poochie Show     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa's Date with Density     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Milhouse Divided     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain of Madness     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Sister, My Sitter     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Old Man and the Lisa     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Secret War of Lisa Simpson     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpsoncalifragilisticexpiala(Annoyed Grunt)cious     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Simpsons Spin-Off Showcase     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Springfield Files     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror VII     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Twisted World of Marge Simpson     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Only Move Twice     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Singing, All Dancing     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart Carny     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart Star     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cartridge Family     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The City of New York vs. Homer Simpson     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Bus     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dumbbell Indemnity     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girly Edition     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Joy of Sect     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of the Hill     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Last Temptation of Krust     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa the Simpson     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa the Skeptic     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa's Sax     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Our Lisa     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miracle on Evergreen Terrace     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Born Kissers     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Principal and the Pauper     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realty Bites     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpson Tide     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Little Wiggy     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trash of the Titans     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror VIII     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Trouble with Trillions     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Two Mrs. Nahasapeemapetilons     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart the Mother     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D'oh-in' in the Wind     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer Simpson in: Kidney Trouble""     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer to the Max     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm with Cupid     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lard of the Dance     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa Gets an A""     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Room for Lisa     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marge Simpson in: Screaming Yellow Honkers""     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Homerdrive     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayored to the Mob     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom and Pop Art     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monty Can't Buy Me Love     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Old Man and the C" Student"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpsons Bible Stories     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunday, Cruddy Sunday     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They Saved Lisa's Brain     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirty Minutes Over Tokyo     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror IX     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viva Ned Flanders     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When You Dish Upon a Star     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Barts Can't Be Broken     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wizard of Evergreen Terrace     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alone Again, Natura-Diddily     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart to the Future     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behind the Laughter     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond Blunderdome     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brother's Little Helper     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days of Wine and D'oh'ses     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-I-E-I-D'oh     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eight Misbehavin'     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faith Off     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grift of the Magi     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guess Who's Coming to Criticize Dinner?     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello Gutter, Hello Fadder     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a Mad, Mad, Mad, Mad Marge     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kill the Alligator and Run     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Tap Dance in Springfield     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Big Mom     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mansion Family     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missionary: Impossible     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pygmoelian     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saddlesore Galactica     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take My Wife, Sleaze     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror X     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bye Bye Nerdie     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children of a Lesser Clod     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Computer Wore Menace Shoes     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day of the Jackanapes     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Great Money Caper     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer vs. Dignity     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOMЯ     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungry, Hungry Homer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm Goin' to Praiseland     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insane Clown Poppy     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa the Tree Hugger     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Kids on the Blecch     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pokey Mom     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpson Safari     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpsons Tall Tales     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skinner's Sense of Snow     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Tale of Two Springfields     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennis the Menace     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XI     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trilogy of Error     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst Episode Ever     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Hunka Hunka Burns in Love     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bart Wants What It Wants     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blame It on Lisa     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Blunder Years     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brawl in the Family     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Frying Game     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gump Roast     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half-Decent Proposal     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer the Moe     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Am Furious Yellow     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaws Wired Shut     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lastest Gun in the West     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Girl in the Big Ten     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Old Man and the Key     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Parent Rap     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poppa's Got a Brand New Badge     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She of Little Faith     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sweetest Apu     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweets and Sour Marge     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tales from the Public Domain     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XII     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend at Burnsie's     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bart of War     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart vs. Lisa vs. the Third Grade     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barting Over     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brake My Wife, Please     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.E. D'oh     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dad Who Knew Too Little     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dude, Where's My Ranch?     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Great Louse Detective     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helter Shelter     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How I Spent My Strummer Vacation     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm Spelling as Fast as I Can     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Marge     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moe Baby Blues     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Spritz Goes to Washington     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Yeller-Belly     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pray Anything     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Scuse Me While I Miss the Sky     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Edna     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Star Is Born-Again     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Strong Arms of the Ma     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three Gays of the Condo     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XIII     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart-Mangled Banner     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catch 'Em if You Can     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co-Dependent's Day     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diatribe of a Mad Housewife     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fat and the Furriest     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraudcast News     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I, (Annoyed Grunt)-Bot     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marge vs. Singles, Seniors, Childless Couples and Teens and Gays     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margical History Tour     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milhouse Doesn't Live Here Anymore     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Big Fat Geek Wedding     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Mother the Carjacker     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The President Wore Pearls     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Regina Monologues     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Simpson     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart and Smarter     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Way We Weren't     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Tis the Fifteenth Season     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today, I Am a Clown     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XIV     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wandering Juvie     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ziff Who Came to Dinner     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Star is Torn     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All's Fair in Oven War     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't Fear the Roofer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fat Man and Little Boy     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Father, the Son and the Holy Guest Star     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future-Drama     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goo Goo Gai Pan     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Heartbroke Kid     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Away from Homer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer and Ned's Hail Mary Pass     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midnight Rx     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Homer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mommie Beerest     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a Clear Day I Can't See My Sister     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranksta Rap     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Seven-Beer Snitch     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She Used to Be My Girl     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleeping with the Enemy     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank God It's Doomsday     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's Something About Marrying     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XV     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart Has Two Mommies     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonfire of the Manatees     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Girl Who Slept Too Little     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girls Just Want to Have Sums     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer Simpson, This Is Your Wife     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer's Paternity Coot     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Italian Bob     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiss Kiss Bang Bangalore     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Last of the Red Hat Mamas     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marge and Homer Turn a Couple Play     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marge's Son Poisoning     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milhouse of Sand and Fog     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Million Dollar Abie     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Monkey Suit     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Fair Laddy     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regarding Margie     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Homer Run     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Seemingly Never-Ending Story     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpson Christmas Stories     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XVI     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're on the Road to D'oh-where     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wettest Stories Ever Told     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Minutes     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Boys of Bummer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crook and Ladder     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.I. (Annoyed Grunt)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Haw-Hawed Couple     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homerazzi     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Cream of Margie (with the Light Blue Hair)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazzy and the Pussycats     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kill Gil: Vols. 1 &amp; 2     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Big Girl     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marge Gamer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moe'N'a Lisa     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mook, the Chef, the Wife and Her Homer     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please Homer, Don't Hammer 'Em     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenge is a Dish Best Served Three Times     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rome-Old and Julie-Eh     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield Up     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop or My Dog Will Shoot!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XVII     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wife Aquatic     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yokel Chords     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Kent Always Say What You Want     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All About Lisa     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any Given Sundance     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apocalypse Cow     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Debarted     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dial N" for Nerder"     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E. Pluribus Wiggum     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eternal Moonshine of the Simpson Mind     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funeral for a Fiend     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He Loves to Fly and He D'ohs     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Homer of Seville     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husbands and Knives     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Don't Wanna Know Why the Caged Bird Sings     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Orphan Millie     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love, Springfieldian Style     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midnight Towboy     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mona Leaves-a     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papa Don't Leech     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoke on the Daughter     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That '90s Show     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XVIII     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Burns and the Bees     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coming to Homerica     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dangerous Curves     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double, Double, Boy in Trouble     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eeny Teeny Maya, Moe     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father Knows Worst     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four Great Women and a Manicure     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gone Maggie Gone     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Good, the Sad and the Drugly     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer and Lisa Exchange Cross Words     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How the Test Was Won     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the Name of the Grandfather     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa the Drama Queen     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Verizon     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mypods and Boomsticks     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Loan Again, Naturally     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex, Pies, and Idiot Scrapes     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take My Life, Please     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XIX     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waverly Hills 9-0-2-1-(Annoying Grunt)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wedding for Disaster     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">American History X-cellent     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart Gets a Z""     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bob Next Door     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boy Meets Curl     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chief of Hearts     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Color Yellow     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Devil Wears Nada     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Great Wife Hope     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Greatest Story Ever D'ohed     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer the Whopper     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judge Me Tender     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Million Dollar Maybe     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moe Letter Blues     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brother, Where Bart Thou?     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once Upon a Time in Springfield     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcards From the Wedge     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranks and Greens     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rednecks and Broomsticks     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Squirt and the Whale     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealing First Base     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursdays with Abie     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Surveil With Love     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XX     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 Keys     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Midsummer's Nice Dream     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angry Dad: The Movie     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Blue and the Gray     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donnie Fatso     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementary School Musical     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fight Before Christmas     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flaming Moe     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fool Monty     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer Scissorhands     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer the Father     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How Munched Is That Birdie in the Window?     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa Simpson, This Isn't Your Life     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan-a Lisa     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love is a Many Strangled Thing     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moms I'd Like to Forget     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MoneyBART     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Great Simpsina     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ned-liest Catch     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Real Housewives of Fat Tony     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Scorpion's Tale     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XXI     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Totally Fun Thing That Bart Will Never Do Again     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At Long Last Leave     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart Stops to Smell the Roosevelts     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beware My Cheating Bart     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exit Through the Kwik-E-Mart     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holidays of Future Passed     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How I Wet Your Mother     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa Goes Gaga     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moe Goes from Rags to Riches     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ned 'N Edna's Blend     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politically Inept, with Homer Simpson     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replaceable You     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Book Job     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The D'oh-cial Network     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Daughter Also Rises     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Falcon and the D'ohman     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Food Wife     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Man in the Blue Flannel Pants     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spy Who Learned Me     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ten-Per-Cent-Solution     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Them, Robot     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XXII     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Test Before Trying     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Tree Grows in Springfield     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventures in Baby-Getting     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black-eyed Please     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changing of the Guardian     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dangers on a Train     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Knight Court     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fabulous Faker Boy     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gone Abie Gone     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorgeous Grampa     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardly Kirk-ing     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer Goes to Prep School     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love is a Many Splintered Thing     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moonshine River     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penny-Wiseguys     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpit Friction     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Saga of Carl     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Day the Earth Stood Cool     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Cur, with Love     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XXIII     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Animated Women Want     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiskey Business     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brick Like Me     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days of Future Future     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diggs     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four Regrettings and a Funeral     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homerland     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labor Pains     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca$     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Married to the Blob     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pay Pal     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpsorama     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specs and the City     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steal This Episode     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kid is All Right     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Man Who Came to Be Dinner     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Man Who Grew Too Much     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The War of Art     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Winter of His Content     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treehouse of Horror XXIV     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What to Expect When Bart's Expecting     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Christmas Blues     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow Subterfuge     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yolo     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Don't Have to Live Like a Referee     </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21,14 +1685,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -354,12 +2018,4443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B553" sqref="A138:B553"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+      <c r="B474">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+      <c r="B475">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+      <c r="B476">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+      <c r="B477">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>478</v>
+      </c>
+      <c r="B479">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>479</v>
+      </c>
+      <c r="B480">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>480</v>
+      </c>
+      <c r="B481">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>481</v>
+      </c>
+      <c r="B482">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>482</v>
+      </c>
+      <c r="B483">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>483</v>
+      </c>
+      <c r="B484">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>484</v>
+      </c>
+      <c r="B485">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>485</v>
+      </c>
+      <c r="B486">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>486</v>
+      </c>
+      <c r="B487">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>488</v>
+      </c>
+      <c r="B489">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+      <c r="B490">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+      <c r="B491">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+      <c r="B492">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+      <c r="B493">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+      <c r="B494">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+      <c r="B495">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+      <c r="B496">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+      <c r="B497">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+      <c r="B498">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+      <c r="B499">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
+        <v>499</v>
+      </c>
+      <c r="B500">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" t="s">
+        <v>500</v>
+      </c>
+      <c r="B501">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" t="s">
+        <v>501</v>
+      </c>
+      <c r="B502">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" t="s">
+        <v>502</v>
+      </c>
+      <c r="B503">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" t="s">
+        <v>503</v>
+      </c>
+      <c r="B504">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" t="s">
+        <v>504</v>
+      </c>
+      <c r="B505">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" t="s">
+        <v>505</v>
+      </c>
+      <c r="B506">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" t="s">
+        <v>506</v>
+      </c>
+      <c r="B507">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" t="s">
+        <v>507</v>
+      </c>
+      <c r="B508">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" t="s">
+        <v>508</v>
+      </c>
+      <c r="B509">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" t="s">
+        <v>509</v>
+      </c>
+      <c r="B510">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" t="s">
+        <v>510</v>
+      </c>
+      <c r="B511">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+      <c r="B512">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" t="s">
+        <v>512</v>
+      </c>
+      <c r="B513">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+      <c r="B514">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+      <c r="B515">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+      <c r="B516">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+      <c r="B517">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+      <c r="B518">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+      <c r="B519">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+      <c r="B520">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+      <c r="B521">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+      <c r="B522">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+      <c r="B523">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+      <c r="B524">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+      <c r="B525">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+      <c r="B526">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+      <c r="B527">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+      <c r="B528">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+      <c r="B529">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" t="s">
+        <v>529</v>
+      </c>
+      <c r="B530">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+      <c r="B531">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" t="s">
+        <v>531</v>
+      </c>
+      <c r="B532">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" t="s">
+        <v>532</v>
+      </c>
+      <c r="B533">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" t="s">
+        <v>533</v>
+      </c>
+      <c r="B534">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" t="s">
+        <v>534</v>
+      </c>
+      <c r="B535">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" t="s">
+        <v>535</v>
+      </c>
+      <c r="B536">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" t="s">
+        <v>536</v>
+      </c>
+      <c r="B537">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" t="s">
+        <v>537</v>
+      </c>
+      <c r="B538">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
+        <v>538</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" t="s">
+        <v>539</v>
+      </c>
+      <c r="B540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" t="s">
+        <v>540</v>
+      </c>
+      <c r="B541">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" t="s">
+        <v>541</v>
+      </c>
+      <c r="B542">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" t="s">
+        <v>542</v>
+      </c>
+      <c r="B543">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" t="s">
+        <v>543</v>
+      </c>
+      <c r="B544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" t="s">
+        <v>544</v>
+      </c>
+      <c r="B545">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" t="s">
+        <v>545</v>
+      </c>
+      <c r="B546">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" t="s">
+        <v>546</v>
+      </c>
+      <c r="B547">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" t="s">
+        <v>547</v>
+      </c>
+      <c r="B548">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" t="s">
+        <v>548</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" t="s">
+        <v>549</v>
+      </c>
+      <c r="B550">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" t="s">
+        <v>550</v>
+      </c>
+      <c r="B551">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" t="s">
+        <v>551</v>
+      </c>
+      <c r="B552">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" t="s">
+        <v>552</v>
+      </c>
+      <c r="B553">
+        <v>546</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -372,7 +6467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -386,7 +6481,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
